--- a/APM files/125037633/125037633 IMPORT Room Type Names.xlsx
+++ b/APM files/125037633/125037633 IMPORT Room Type Names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\125037633\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1454BF-2F22-4579-BFEC-54BB5A878FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7662C606-D2A5-41F8-ADF0-37D55417DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="4410" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15840" yWindow="6465" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -58,28 +58,25 @@
     <t>EQCVHCSentinel-j60xr8</t>
   </si>
   <si>
-    <t>House, Multiple Beds, Balcony, Ocean View (#202)</t>
-  </si>
-  <si>
-    <t>Condo, Multiple Beds, Beach View (#406)</t>
-  </si>
-  <si>
-    <t>Condo, Multiple Beds, Balcony, Pool View (#53)</t>
-  </si>
-  <si>
     <t>RNS Flag</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>Condo, Multiple Beds, Beach View</t>
+  </si>
+  <si>
+    <t>House, Multiple Beds, Balcony, Ocean View</t>
+  </si>
+  <si>
+    <t>Condo, Multiple Beds, Balcony, Pool View</t>
+  </si>
+  <si>
     <t>RNS Room Type</t>
   </si>
   <si>
     <t>Condo</t>
-  </si>
-  <si>
-    <t>House</t>
   </si>
 </sst>
 </file>
@@ -463,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +469,6 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -489,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -506,10 +502,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -526,13 +522,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,10 +542,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>

--- a/APM files/125037633/125037633 IMPORT Room Type Names.xlsx
+++ b/APM files/125037633/125037633 IMPORT Room Type Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\125037633\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7662C606-D2A5-41F8-ADF0-37D55417DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07D147-D631-45A5-AA49-F82CE7AA1D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="6465" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16035" yWindow="5985" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -28,62 +28,41 @@
     <t>Room Type ID</t>
   </si>
   <si>
-    <t>Room Type Code</t>
-  </si>
-  <si>
     <t>Room Type Name</t>
   </si>
   <si>
-    <t>55082803</t>
-  </si>
-  <si>
-    <t>229851521</t>
-  </si>
-  <si>
-    <t>EQCVHCSentinel-4ys5xd</t>
-  </si>
-  <si>
-    <t>324324718</t>
-  </si>
-  <si>
-    <t>EQCVHCSentinel-r2dij1</t>
-  </si>
-  <si>
-    <t>72281564</t>
-  </si>
-  <si>
-    <t>324324730</t>
-  </si>
-  <si>
-    <t>EQCVHCSentinel-j60xr8</t>
-  </si>
-  <si>
     <t>RNS Flag</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Condo, Multiple Beds, Beach View</t>
-  </si>
-  <si>
-    <t>House, Multiple Beds, Balcony, Ocean View</t>
-  </si>
-  <si>
-    <t>Condo, Multiple Beds, Balcony, Pool View</t>
-  </si>
-  <si>
     <t>RNS Room Type</t>
   </si>
   <si>
-    <t>Condo</t>
+    <t>RNS Quality</t>
+  </si>
+  <si>
+    <t>RNS View</t>
+  </si>
+  <si>
+    <t>RNS Feature Amenity</t>
+  </si>
+  <si>
+    <t>RNS Area</t>
+  </si>
+  <si>
+    <t>RNS Smoking Pref</t>
+  </si>
+  <si>
+    <t>RNS Other Room Info</t>
+  </si>
+  <si>
+    <t>RNS Custom Label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -100,6 +79,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,10 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,22 +444,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,74 +480,56 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>55082803</v>
+      </c>
+      <c r="B2">
+        <v>324324718</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>55082803</v>
+      </c>
+      <c r="B3">
+        <v>229851521</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>72281564</v>
+      </c>
+      <c r="B4">
+        <v>324324730</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B1048576 B1:B7">
+  <conditionalFormatting sqref="B10:B1048576 B1 B5:B7">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
